--- a/Data/2015_unemployment.xlsx
+++ b/Data/2015_unemployment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>COUNTIES RANKED BY UNEMPLOYMENT RATE</t>
   </si>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,673 +728,541 @@
       <c r="G2" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4">
         <v>3.8</v>
       </c>
-      <c r="E5" s="3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="4">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="4">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="4">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B56" s="4">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B58" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E9" s="3">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B60" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E12" s="3">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="E13" s="3">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="E14" s="3">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="E15" s="3">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="4">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E18" s="3">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="4">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E19" s="3">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="4">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B61" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>45</v>
       </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="4">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="4">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="B66" s="4">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="4">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="4">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="E26" s="3">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="4">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="E27" s="3">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="4">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="E29" s="3">
-        <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="4">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="E30" s="3">
-        <v>52</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="4">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="4">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="B68" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="4">
-        <v>6</v>
-      </c>
-      <c r="E32" s="3">
-        <v>54</v>
-      </c>
-      <c r="F32" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="4">
+      <c r="B69" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="4">
-        <v>6</v>
-      </c>
-      <c r="E33" s="3">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="4">
+      <c r="B70" s="4">
         <v>7.6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="4">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>57</v>
       </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="4">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>58</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="B73" s="4">
         <v>7.8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="E37" s="3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>59</v>
       </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="B74" s="4">
         <v>8.1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="4">
+      <c r="B75" s="4">
         <v>8.9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>60</v>
-      </c>
-      <c r="F39" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="4">
+      <c r="B76" s="4">
         <v>8.9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>62</v>
-      </c>
-      <c r="F40" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="4">
+      <c r="B77" s="4">
         <v>9</v>
       </c>
     </row>
